--- a/InputFiles/ICDC/TC05_Canine_StudyCoT7B-Breed-Bullmastiff-NeuteredStatus-No.xlsx
+++ b/InputFiles/ICDC/TC05_Canine_StudyCoT7B-Breed-Bullmastiff-NeuteredStatus-No.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5489F7E-A0BC-47E8-9991-79C343609F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25D57B-D3FA-4930-B288-7B12E18F4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="35070" yWindow="2940" windowWidth="17280" windowHeight="8970" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -79,37 +79,6 @@
         coalesce(diag.best_response, '') AS `Response to Treatment` </t>
   </si>
   <si>
-    <t>MATCH (s:study)
-  MATCH (demo:demographic) 
-  MATCH (diag:diagnosis)
- MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-	WHERE s.clinical_study_designation IN ['COTC007B'] and demo.breed in ['Bullmastiff'] and demo.neutered_indicator IN ['No']
-OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
-OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
-RETURN 
-	count(DISTINCT(f)) as number_of_files , 
-	count(DISTINCT(samp)) as number_of_sample , 
-	count(DISTINCT(c.case_id)) as number_of_cases , 
-	count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['COTC007B'] and demo.breed in ['Bullmastiff] and demo.neutered_indicator IN ['No']
- WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
@@ -131,6 +100,45 @@
   </si>
   <si>
     <t>TC05_Canine_StudyCoT7B-Breed-Bullmastiff-NeuteredStatus-No_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['COTC007B'] and demo.breed in ['Bullmastiff] and demo.neutered_indicator IN ['No']
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+       order by c.case_id asc
+limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+WHERE s.clinical_study_designation IN ['COTC007B'] and demo.breed in ['Bullmastiff'] and demo.neutered_indicator IN ['No']
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -204,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,19 +510,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -531,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -539,67 +547,67 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
